--- a/Matlab/Brass hydrophonesx2/Config 1/VB8012-308BB8A_2016-03-22_12-28-30.xlsx
+++ b/Matlab/Brass hydrophonesx2/Config 1/VB8012-308BB8A_2016-03-22_12-28-30.xlsx
@@ -293,7 +293,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +473,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -634,8 +640,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4952,6 +4959,9 @@
           <c:tx>
             <c:v>listen</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="12700"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -9191,11 +9201,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49685632"/>
-        <c:axId val="49687168"/>
+        <c:axId val="221326336"/>
+        <c:axId val="221352704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49685632"/>
+        <c:axId val="221326336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9205,7 +9215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49687168"/>
+        <c:crossAx val="221352704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9213,7 +9223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49687168"/>
+        <c:axId val="221352704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9224,7 +9234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49685632"/>
+        <c:crossAx val="221326336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9570,8 +9580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A677" workbookViewId="0">
-      <selection activeCell="H708" sqref="H708"/>
+    <sheetView tabSelected="1" topLeftCell="A360" workbookViewId="0">
+      <selection activeCell="K398" sqref="K398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13501,629 +13511,629 @@
       </c>
     </row>
     <row r="343" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C343">
+      <c r="C343" s="1">
         <v>0</v>
       </c>
-      <c r="D343">
+      <c r="D343" s="1">
         <v>0.328590170552024</v>
       </c>
-      <c r="E343">
+      <c r="E343" s="1">
         <v>-4.4852603132952099E-2</v>
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C344">
+      <c r="C344" s="1">
         <v>4004</v>
       </c>
-      <c r="D344">
+      <c r="D344" s="1">
         <v>-1.70888417936556E-2</v>
       </c>
-      <c r="E344">
+      <c r="E344" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="345" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C345">
+      <c r="C345" s="1">
         <v>8008</v>
       </c>
-      <c r="D345">
+      <c r="D345" s="1">
         <v>-0.609681434386248</v>
       </c>
-      <c r="E345">
+      <c r="E345" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C346">
+      <c r="C346" s="1">
         <v>12012</v>
       </c>
-      <c r="D346">
+      <c r="D346" s="1">
         <v>-0.280463327390363</v>
       </c>
-      <c r="E346">
+      <c r="E346" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="347" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C347">
+      <c r="C347" s="1">
         <v>16016</v>
       </c>
-      <c r="D347">
+      <c r="D347" s="1">
         <v>0.295668359852435</v>
       </c>
-      <c r="E347">
+      <c r="E347" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="348" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C348">
+      <c r="C348" s="1">
         <v>20020</v>
       </c>
-      <c r="D348">
+      <c r="D348" s="1">
         <v>0.50966012939976002</v>
       </c>
-      <c r="E348">
+      <c r="E348" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="349" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C349">
+      <c r="C349" s="1">
         <v>24024</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="1">
         <v>0.26274654915284701</v>
       </c>
-      <c r="E349">
+      <c r="E349" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="350" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C350">
+      <c r="C350" s="1">
         <v>28028</v>
       </c>
-      <c r="D350">
+      <c r="D350" s="1">
         <v>-0.165236989941804</v>
       </c>
-      <c r="E350">
+      <c r="E350" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C351">
+      <c r="C351" s="1">
         <v>32032</v>
       </c>
-      <c r="D351">
+      <c r="D351" s="1">
         <v>-0.49445509693768902</v>
       </c>
-      <c r="E351">
+      <c r="E351" s="1">
         <v>-4.4852603132952099E-2</v>
       </c>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C352">
+      <c r="C352" s="1">
         <v>36036</v>
       </c>
-      <c r="D352">
+      <c r="D352" s="1">
         <v>-0.37922875948912899</v>
       </c>
-      <c r="E352">
+      <c r="E352" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="353" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C353">
+      <c r="C353" s="1">
         <v>40040</v>
       </c>
-      <c r="D353">
+      <c r="D353" s="1">
         <v>9.8137495654904205E-2</v>
       </c>
-      <c r="E353">
+      <c r="E353" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="354" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C354">
+      <c r="C354" s="1">
         <v>44044</v>
       </c>
-      <c r="D354">
+      <c r="D354" s="1">
         <v>0.49319922404996602</v>
       </c>
-      <c r="E354">
+      <c r="E354" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C355">
+      <c r="C355" s="1">
         <v>48048</v>
       </c>
-      <c r="D355">
+      <c r="D355" s="1">
         <v>0.42735560265078898</v>
       </c>
-      <c r="E355">
+      <c r="E355" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="356" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C356">
+      <c r="C356" s="1">
         <v>52052</v>
       </c>
-      <c r="D356">
-        <v>-6.27936443861277E-4</v>
-      </c>
-      <c r="E356">
+      <c r="D356" s="1">
+        <v>-6.27936443861277E-4</v>
+      </c>
+      <c r="E356" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="357" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C357">
+      <c r="C357" s="1">
         <v>56056</v>
       </c>
-      <c r="D357">
+      <c r="D357" s="1">
         <v>-0.41215057018871698</v>
       </c>
-      <c r="E357">
+      <c r="E357" s="1">
         <v>-4.4852603132952099E-2</v>
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C358">
+      <c r="C358" s="1">
         <v>60060</v>
       </c>
-      <c r="D358">
+      <c r="D358" s="1">
         <v>-0.47799419158789402</v>
       </c>
-      <c r="E358">
+      <c r="E358" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="359" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C359">
+      <c r="C359" s="1">
         <v>64064</v>
       </c>
-      <c r="D359">
+      <c r="D359" s="1">
         <v>-0.11585427389242101</v>
       </c>
-      <c r="E359">
+      <c r="E359" s="1">
         <v>-4.4852603132952099E-2</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C360">
+      <c r="C360" s="1">
         <v>68068</v>
       </c>
-      <c r="D360">
+      <c r="D360" s="1">
         <v>0.37797288660140599</v>
       </c>
-      <c r="E360">
+      <c r="E360" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C361">
+      <c r="C361" s="1">
         <v>72072</v>
       </c>
-      <c r="D361">
+      <c r="D361" s="1">
         <v>0.52612103474955396</v>
       </c>
-      <c r="E361">
+      <c r="E361" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="362" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C362">
+      <c r="C362" s="1">
         <v>76076</v>
       </c>
-      <c r="D362">
+      <c r="D362" s="1">
         <v>0.180442022403875</v>
       </c>
-      <c r="E362">
+      <c r="E362" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="363" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C363">
+      <c r="C363" s="1">
         <v>80080</v>
       </c>
-      <c r="D363">
+      <c r="D363" s="1">
         <v>-0.313385138089952</v>
       </c>
-      <c r="E363">
+      <c r="E363" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C364">
+      <c r="C364" s="1">
         <v>84084</v>
       </c>
-      <c r="D364">
+      <c r="D364" s="1">
         <v>-0.52737690763727696</v>
       </c>
-      <c r="E364">
+      <c r="E364" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="365" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C365">
+      <c r="C365" s="1">
         <v>88088</v>
       </c>
-      <c r="D365">
+      <c r="D365" s="1">
         <v>-0.26400242204056901</v>
       </c>
-      <c r="E365">
+      <c r="E365" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C366">
+      <c r="C366" s="1">
         <v>92092</v>
       </c>
-      <c r="D366">
+      <c r="D366" s="1">
         <v>0.22982473845325799</v>
       </c>
-      <c r="E366">
+      <c r="E366" s="1">
         <v>-4.4852603132952099E-2</v>
       </c>
     </row>
     <row r="367" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C367">
+      <c r="C367" s="1">
         <v>96096</v>
       </c>
-      <c r="D367">
+      <c r="D367" s="1">
         <v>0.52612103474955396</v>
       </c>
-      <c r="E367">
+      <c r="E367" s="1">
         <v>-4.4852603132952099E-2</v>
       </c>
     </row>
     <row r="368" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C368">
+      <c r="C368" s="1">
         <v>100100</v>
       </c>
-      <c r="D368">
+      <c r="D368" s="1">
         <v>0.328590170552024</v>
       </c>
-      <c r="E368">
+      <c r="E368" s="1">
         <v>-4.4852603132952099E-2</v>
       </c>
     </row>
     <row r="369" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C369">
+      <c r="C369" s="1">
         <v>104104</v>
       </c>
-      <c r="D369">
+      <c r="D369" s="1">
         <v>-0.165236989941804</v>
       </c>
-      <c r="E369">
+      <c r="E369" s="1">
         <v>1.10741077135264</v>
       </c>
     </row>
     <row r="370" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C370">
+      <c r="C370" s="1">
         <v>108108</v>
       </c>
-      <c r="D370">
+      <c r="D370" s="1">
         <v>-0.51091600228748302</v>
       </c>
-      <c r="E370">
+      <c r="E370" s="1">
         <v>2.0950650923402998</v>
       </c>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C371">
+      <c r="C371" s="1">
         <v>112112</v>
       </c>
-      <c r="D371">
+      <c r="D371" s="1">
         <v>-0.39568966483892298</v>
       </c>
-      <c r="E371">
+      <c r="E371" s="1">
         <v>-2.6785974591000299</v>
       </c>
     </row>
     <row r="372" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C372">
+      <c r="C372" s="1">
         <v>116116</v>
       </c>
-      <c r="D372">
+      <c r="D372" s="1">
         <v>8.1676590305109903E-2</v>
       </c>
-      <c r="E372">
+      <c r="E372" s="1">
         <v>-4.8185151545732801</v>
       </c>
     </row>
     <row r="373" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C373">
+      <c r="C373" s="1">
         <v>120120</v>
       </c>
-      <c r="D373">
+      <c r="D373" s="1">
         <v>0.49319922404996602</v>
       </c>
-      <c r="E373">
+      <c r="E373" s="1">
         <v>0.94280171785470201</v>
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C374">
+      <c r="C374" s="1">
         <v>124124</v>
       </c>
-      <c r="D374">
+      <c r="D374" s="1">
         <v>0.44381650800058298</v>
       </c>
-      <c r="E374">
+      <c r="E374" s="1">
         <v>4.3995918413114898</v>
       </c>
     </row>
     <row r="375" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C375">
+      <c r="C375" s="1">
         <v>128128</v>
       </c>
-      <c r="D375">
+      <c r="D375" s="1">
         <v>1.5832968905932901E-2</v>
       </c>
-      <c r="E375">
+      <c r="E375" s="1">
         <v>2.58889225283413</v>
       </c>
     </row>
     <row r="376" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C376">
+      <c r="C376" s="1">
         <v>132132</v>
       </c>
-      <c r="D376">
+      <c r="D376" s="1">
         <v>-0.44507238088830597</v>
       </c>
-      <c r="E376">
+      <c r="E376" s="1">
         <v>-0.209461656630895</v>
       </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C377">
+      <c r="C377" s="1">
         <v>136136</v>
       </c>
-      <c r="D377">
+      <c r="D377" s="1">
         <v>-0.49445509693768902</v>
       </c>
-      <c r="E377">
+      <c r="E377" s="1">
         <v>-2.1847702986062001</v>
       </c>
     </row>
     <row r="378" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C378">
+      <c r="C378" s="1">
         <v>140140</v>
       </c>
-      <c r="D378">
+      <c r="D378" s="1">
         <v>-8.2932463192832498E-2</v>
       </c>
-      <c r="E378">
+      <c r="E378" s="1">
         <v>-3.1724246195938601</v>
       </c>
     </row>
     <row r="379" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C379">
+      <c r="C379" s="1">
         <v>144144</v>
       </c>
-      <c r="D379">
+      <c r="D379" s="1">
         <v>0.39443379195119999</v>
       </c>
-      <c r="E379">
+      <c r="E379" s="1">
         <v>-1.03250692412061</v>
       </c>
     </row>
     <row r="380" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C380">
+      <c r="C380" s="1">
         <v>148148</v>
       </c>
-      <c r="D380">
+      <c r="D380" s="1">
         <v>0.52612103474955396</v>
       </c>
-      <c r="E380">
+      <c r="E380" s="1">
         <v>2.42428319933618</v>
       </c>
     </row>
     <row r="381" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C381">
+      <c r="C381" s="1">
         <v>152152</v>
       </c>
-      <c r="D381">
+      <c r="D381" s="1">
         <v>0.163981117054081</v>
       </c>
-      <c r="E381">
+      <c r="E381" s="1">
         <v>3.7411556273197202</v>
       </c>
     </row>
     <row r="382" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C382">
+      <c r="C382" s="1">
         <v>156156</v>
       </c>
-      <c r="D382">
+      <c r="D382" s="1">
         <v>-0.329846043439746</v>
       </c>
-      <c r="E382">
+      <c r="E382" s="1">
         <v>1.2720198248505901</v>
       </c>
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C383">
+      <c r="C383" s="1">
         <v>160160</v>
       </c>
-      <c r="D383">
+      <c r="D383" s="1">
         <v>-0.54383781298707101</v>
       </c>
-      <c r="E383">
+      <c r="E383" s="1">
         <v>-1.8555521916103199</v>
       </c>
     </row>
     <row r="384" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C384">
+      <c r="C384" s="1">
         <v>164164</v>
       </c>
-      <c r="D384">
+      <c r="D384" s="1">
         <v>-0.24754151669077501</v>
       </c>
-      <c r="E384">
+      <c r="E384" s="1">
         <v>-3.3370336730918</v>
       </c>
     </row>
     <row r="385" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C385">
+      <c r="C385" s="1">
         <v>168168</v>
       </c>
-      <c r="D385">
+      <c r="D385" s="1">
         <v>0.24628564380305201</v>
       </c>
-      <c r="E385">
+      <c r="E385" s="1">
         <v>-1.6909431381123801</v>
       </c>
     </row>
     <row r="386" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C386">
+      <c r="C386" s="1">
         <v>172172</v>
       </c>
-      <c r="D386">
+      <c r="D386" s="1">
         <v>0.54258194009934901</v>
       </c>
-      <c r="E386">
+      <c r="E386" s="1">
         <v>1.60123793184647</v>
       </c>
     </row>
     <row r="387" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C387">
+      <c r="C387" s="1">
         <v>176176</v>
       </c>
-      <c r="D387">
+      <c r="D387" s="1">
         <v>0.312129265202229</v>
       </c>
-      <c r="E387">
+      <c r="E387" s="1">
         <v>3.5765465738217799</v>
       </c>
     </row>
     <row r="388" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C388">
+      <c r="C388" s="1">
         <v>180180</v>
       </c>
-      <c r="D388">
+      <c r="D388" s="1">
         <v>-0.165236989941804</v>
       </c>
-      <c r="E388">
+      <c r="E388" s="1">
         <v>2.42428319933618</v>
       </c>
     </row>
     <row r="389" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C389">
+      <c r="C389" s="1">
         <v>184184</v>
       </c>
-      <c r="D389">
+      <c r="D389" s="1">
         <v>-0.51091600228748302</v>
       </c>
-      <c r="E389">
+      <c r="E389" s="1">
         <v>-1.03250692412061</v>
       </c>
     </row>
     <row r="390" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C390">
+      <c r="C390" s="1">
         <v>188188</v>
       </c>
-      <c r="D390">
+      <c r="D390" s="1">
         <v>-0.39568966483892298</v>
       </c>
-      <c r="E390">
+      <c r="E390" s="1">
         <v>-3.1724246195938601</v>
       </c>
     </row>
     <row r="391" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C391">
+      <c r="C391" s="1">
         <v>192192</v>
       </c>
-      <c r="D391">
+      <c r="D391" s="1">
         <v>8.1676590305109903E-2</v>
       </c>
-      <c r="E391">
+      <c r="E391" s="1">
         <v>-2.51398840560209</v>
       </c>
     </row>
     <row r="392" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C392">
+      <c r="C392" s="1">
         <v>196196</v>
       </c>
-      <c r="D392">
+      <c r="D392" s="1">
         <v>0.47673831870017203</v>
       </c>
-      <c r="E392">
+      <c r="E392" s="1">
         <v>0.61358361085881796</v>
       </c>
     </row>
     <row r="393" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C393">
+      <c r="C393" s="1">
         <v>200200</v>
       </c>
-      <c r="D393">
+      <c r="D393" s="1">
         <v>0.44381650800058298</v>
       </c>
-      <c r="E393">
+      <c r="E393" s="1">
         <v>3.2473284668259002</v>
       </c>
     </row>
     <row r="394" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C394">
+      <c r="C394" s="1">
         <v>204204</v>
       </c>
-      <c r="D394">
+      <c r="D394" s="1">
         <v>1.5832968905932901E-2</v>
       </c>
-      <c r="E394">
+      <c r="E394" s="1">
         <v>3.0827194133279501</v>
       </c>
     </row>
     <row r="395" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C395">
+      <c r="C395" s="1">
         <v>208208</v>
       </c>
-      <c r="D395">
+      <c r="D395" s="1">
         <v>-0.41215057018871698</v>
       </c>
-      <c r="E395">
+      <c r="E395" s="1">
         <v>0.11975645036499</v>
       </c>
     </row>
     <row r="396" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C396">
+      <c r="C396" s="1">
         <v>212212</v>
       </c>
-      <c r="D396">
+      <c r="D396" s="1">
         <v>-0.49445509693768902</v>
       </c>
-      <c r="E396">
+      <c r="E396" s="1">
         <v>-2.6785974591000299</v>
       </c>
     </row>
     <row r="397" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C397">
+      <c r="C397" s="1">
         <v>216216</v>
       </c>
-      <c r="D397">
+      <c r="D397" s="1">
         <v>-0.11585427389242101</v>
       </c>
-      <c r="E397">
+      <c r="E397" s="1">
         <v>-3.1724246195938601</v>
       </c>
     </row>
     <row r="398" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C398">
+      <c r="C398" s="1">
         <v>220220</v>
       </c>
-      <c r="D398">
+      <c r="D398" s="1">
         <v>0.36151198125161199</v>
       </c>
-      <c r="E398">
+      <c r="E398" s="1">
         <v>-0.70328881712472102</v>
       </c>
     </row>
     <row r="399" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C399">
+      <c r="C399" s="1">
         <v>224224</v>
       </c>
-      <c r="D399">
+      <c r="D399" s="1">
         <v>0.50966012939976002</v>
       </c>
-      <c r="E399">
+      <c r="E399" s="1">
         <v>2.58889225283413</v>
       </c>
     </row>
